--- a/datasheets/multiset/recursions_ms_raw_2.xlsx
+++ b/datasheets/multiset/recursions_ms_raw_2.xlsx
@@ -481,16 +481,16 @@
         <v>8192</v>
       </c>
       <c r="D2" t="n">
-        <v>8197</v>
+        <v>8192</v>
       </c>
       <c r="E2" t="n">
         <v>8192</v>
       </c>
       <c r="F2" t="n">
-        <v>5984</v>
+        <v>4065</v>
       </c>
       <c r="G2" t="n">
-        <v>1890</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="3">
@@ -504,16 +504,16 @@
         <v>8192</v>
       </c>
       <c r="D3" t="n">
-        <v>8195</v>
+        <v>8192</v>
       </c>
       <c r="E3" t="n">
-        <v>7791</v>
+        <v>6572</v>
       </c>
       <c r="F3" t="n">
-        <v>6583</v>
+        <v>6081</v>
       </c>
       <c r="G3" t="n">
-        <v>2440</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="4">
@@ -527,16 +527,16 @@
         <v>8192</v>
       </c>
       <c r="D4" t="n">
+        <v>8192</v>
+      </c>
+      <c r="E4" t="n">
         <v>8200</v>
       </c>
-      <c r="E4" t="n">
-        <v>8192</v>
-      </c>
       <c r="F4" t="n">
-        <v>6107</v>
+        <v>5885</v>
       </c>
       <c r="G4" t="n">
-        <v>1531</v>
+        <v>2805</v>
       </c>
     </row>
     <row r="5">
@@ -550,16 +550,16 @@
         <v>8192</v>
       </c>
       <c r="D5" t="n">
-        <v>8199</v>
+        <v>7672</v>
       </c>
       <c r="E5" t="n">
-        <v>7378</v>
+        <v>6653</v>
       </c>
       <c r="F5" t="n">
-        <v>4022</v>
+        <v>5988</v>
       </c>
       <c r="G5" t="n">
-        <v>2972</v>
+        <v>2874</v>
       </c>
     </row>
     <row r="6">
@@ -576,13 +576,13 @@
         <v>8192</v>
       </c>
       <c r="E6" t="n">
-        <v>7676</v>
+        <v>8192</v>
       </c>
       <c r="F6" t="n">
-        <v>4082</v>
+        <v>6139</v>
       </c>
       <c r="G6" t="n">
-        <v>900</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="7">
@@ -599,13 +599,13 @@
         <v>8192</v>
       </c>
       <c r="E7" t="n">
-        <v>8198</v>
+        <v>8192</v>
       </c>
       <c r="F7" t="n">
-        <v>6074</v>
+        <v>6577</v>
       </c>
       <c r="G7" t="n">
-        <v>1950</v>
+        <v>2514</v>
       </c>
     </row>
     <row r="8">
@@ -619,16 +619,16 @@
         <v>8192</v>
       </c>
       <c r="D8" t="n">
-        <v>8076</v>
+        <v>8192</v>
       </c>
       <c r="E8" t="n">
-        <v>8198</v>
+        <v>8192</v>
       </c>
       <c r="F8" t="n">
-        <v>8308</v>
+        <v>4092</v>
       </c>
       <c r="G8" t="n">
-        <v>2763</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="9">
@@ -642,16 +642,16 @@
         <v>8192</v>
       </c>
       <c r="D9" t="n">
-        <v>8203</v>
+        <v>8192</v>
       </c>
       <c r="E9" t="n">
-        <v>7112</v>
+        <v>8035</v>
       </c>
       <c r="F9" t="n">
-        <v>4075</v>
+        <v>6588</v>
       </c>
       <c r="G9" t="n">
-        <v>1788</v>
+        <v>1894</v>
       </c>
     </row>
     <row r="10">
@@ -668,13 +668,13 @@
         <v>8192</v>
       </c>
       <c r="E10" t="n">
-        <v>8219</v>
+        <v>8212</v>
       </c>
       <c r="F10" t="n">
-        <v>6318</v>
+        <v>6399</v>
       </c>
       <c r="G10" t="n">
-        <v>1519</v>
+        <v>1897</v>
       </c>
     </row>
     <row r="11">
@@ -688,16 +688,16 @@
         <v>8192</v>
       </c>
       <c r="D11" t="n">
-        <v>7676</v>
+        <v>8192</v>
       </c>
       <c r="E11" t="n">
-        <v>8192</v>
+        <v>8198</v>
       </c>
       <c r="F11" t="n">
-        <v>8429</v>
+        <v>6105</v>
       </c>
       <c r="G11" t="n">
-        <v>1283</v>
+        <v>1720</v>
       </c>
     </row>
     <row r="12">
@@ -717,10 +717,10 @@
         <v>8192</v>
       </c>
       <c r="F12" t="n">
-        <v>6280</v>
+        <v>4003</v>
       </c>
       <c r="G12" t="n">
-        <v>1935</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="13">
@@ -734,16 +734,16 @@
         <v>8192</v>
       </c>
       <c r="D13" t="n">
-        <v>8197</v>
+        <v>8192</v>
       </c>
       <c r="E13" t="n">
-        <v>7603</v>
+        <v>8198</v>
       </c>
       <c r="F13" t="n">
-        <v>8293</v>
+        <v>5634</v>
       </c>
       <c r="G13" t="n">
-        <v>2891</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="14">
@@ -757,16 +757,16 @@
         <v>8192</v>
       </c>
       <c r="D14" t="n">
-        <v>8192</v>
+        <v>8201</v>
       </c>
       <c r="E14" t="n">
-        <v>8192</v>
+        <v>7202</v>
       </c>
       <c r="F14" t="n">
-        <v>6015</v>
+        <v>6094</v>
       </c>
       <c r="G14" t="n">
-        <v>2003</v>
+        <v>2613</v>
       </c>
     </row>
     <row r="15">
@@ -783,13 +783,13 @@
         <v>8192</v>
       </c>
       <c r="E15" t="n">
-        <v>8213</v>
+        <v>8179</v>
       </c>
       <c r="F15" t="n">
-        <v>6321</v>
+        <v>5885</v>
       </c>
       <c r="G15" t="n">
-        <v>1901</v>
+        <v>1914</v>
       </c>
     </row>
     <row r="16">
@@ -806,13 +806,13 @@
         <v>8192</v>
       </c>
       <c r="E16" t="n">
-        <v>8192</v>
+        <v>8202</v>
       </c>
       <c r="F16" t="n">
-        <v>8250</v>
+        <v>4015</v>
       </c>
       <c r="G16" t="n">
-        <v>1778</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="17">
@@ -826,16 +826,16 @@
         <v>8192</v>
       </c>
       <c r="D17" t="n">
-        <v>8195</v>
+        <v>6918</v>
       </c>
       <c r="E17" t="n">
         <v>8192</v>
       </c>
       <c r="F17" t="n">
-        <v>6408</v>
+        <v>4097</v>
       </c>
       <c r="G17" t="n">
-        <v>1019</v>
+        <v>2740</v>
       </c>
     </row>
     <row r="18">
@@ -849,16 +849,16 @@
         <v>8192</v>
       </c>
       <c r="D18" t="n">
-        <v>8195</v>
+        <v>8192</v>
       </c>
       <c r="E18" t="n">
-        <v>8192</v>
+        <v>8123</v>
       </c>
       <c r="F18" t="n">
-        <v>8290</v>
+        <v>6142</v>
       </c>
       <c r="G18" t="n">
-        <v>1997</v>
+        <v>5157</v>
       </c>
     </row>
     <row r="19">
@@ -872,16 +872,16 @@
         <v>8192</v>
       </c>
       <c r="D19" t="n">
-        <v>8200</v>
+        <v>8053</v>
       </c>
       <c r="E19" t="n">
         <v>8198</v>
       </c>
       <c r="F19" t="n">
-        <v>6078</v>
+        <v>5832</v>
       </c>
       <c r="G19" t="n">
-        <v>3198</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="20">
@@ -895,16 +895,16 @@
         <v>8192</v>
       </c>
       <c r="D20" t="n">
-        <v>8099</v>
+        <v>8192</v>
       </c>
       <c r="E20" t="n">
-        <v>7668</v>
+        <v>7723</v>
       </c>
       <c r="F20" t="n">
-        <v>5979</v>
+        <v>6062</v>
       </c>
       <c r="G20" t="n">
-        <v>1785</v>
+        <v>1965</v>
       </c>
     </row>
     <row r="21">
@@ -918,16 +918,16 @@
         <v>8192</v>
       </c>
       <c r="D21" t="n">
-        <v>8203</v>
+        <v>8192</v>
       </c>
       <c r="E21" t="n">
-        <v>8192</v>
+        <v>7025</v>
       </c>
       <c r="F21" t="n">
-        <v>5890</v>
+        <v>6861</v>
       </c>
       <c r="G21" t="n">
-        <v>1664</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="22">
@@ -941,16 +941,16 @@
         <v>8192</v>
       </c>
       <c r="D22" t="n">
-        <v>8203</v>
+        <v>8192</v>
       </c>
       <c r="E22" t="n">
-        <v>6821</v>
+        <v>8192</v>
       </c>
       <c r="F22" t="n">
-        <v>6022</v>
+        <v>5608</v>
       </c>
       <c r="G22" t="n">
-        <v>2933</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="23">
@@ -967,13 +967,13 @@
         <v>8192</v>
       </c>
       <c r="E23" t="n">
-        <v>8198</v>
+        <v>8192</v>
       </c>
       <c r="F23" t="n">
-        <v>4066</v>
+        <v>6172</v>
       </c>
       <c r="G23" t="n">
-        <v>1883</v>
+        <v>2508</v>
       </c>
     </row>
     <row r="24">
@@ -987,16 +987,16 @@
         <v>8192</v>
       </c>
       <c r="D24" t="n">
-        <v>8192</v>
+        <v>8198</v>
       </c>
       <c r="E24" t="n">
-        <v>8192</v>
+        <v>8208</v>
       </c>
       <c r="F24" t="n">
-        <v>4081</v>
+        <v>8336</v>
       </c>
       <c r="G24" t="n">
-        <v>2847</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="25">
@@ -1013,13 +1013,13 @@
         <v>8192</v>
       </c>
       <c r="E25" t="n">
-        <v>8198</v>
+        <v>7149</v>
       </c>
       <c r="F25" t="n">
-        <v>6731</v>
+        <v>4057</v>
       </c>
       <c r="G25" t="n">
-        <v>3273</v>
+        <v>2742</v>
       </c>
     </row>
     <row r="26">
@@ -1033,16 +1033,16 @@
         <v>8192</v>
       </c>
       <c r="D26" t="n">
-        <v>8202</v>
+        <v>8192</v>
       </c>
       <c r="E26" t="n">
-        <v>7629</v>
+        <v>8192</v>
       </c>
       <c r="F26" t="n">
-        <v>8237</v>
+        <v>6143</v>
       </c>
       <c r="G26" t="n">
-        <v>2881</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="27">
@@ -1059,13 +1059,13 @@
         <v>8192</v>
       </c>
       <c r="E27" t="n">
-        <v>8144</v>
+        <v>7157</v>
       </c>
       <c r="F27" t="n">
-        <v>4095</v>
+        <v>6065</v>
       </c>
       <c r="G27" t="n">
-        <v>1776</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="28">
@@ -1079,16 +1079,16 @@
         <v>8192</v>
       </c>
       <c r="D28" t="n">
-        <v>8197</v>
+        <v>8192</v>
       </c>
       <c r="E28" t="n">
-        <v>8078</v>
+        <v>8207</v>
       </c>
       <c r="F28" t="n">
-        <v>5881</v>
+        <v>6458</v>
       </c>
       <c r="G28" t="n">
-        <v>1524</v>
+        <v>994</v>
       </c>
     </row>
     <row r="29">
@@ -1102,16 +1102,16 @@
         <v>8192</v>
       </c>
       <c r="D29" t="n">
-        <v>7397</v>
+        <v>8192</v>
       </c>
       <c r="E29" t="n">
-        <v>8192</v>
+        <v>7157</v>
       </c>
       <c r="F29" t="n">
-        <v>6127</v>
+        <v>6395</v>
       </c>
       <c r="G29" t="n">
-        <v>1016</v>
+        <v>2368</v>
       </c>
     </row>
     <row r="30">
@@ -1125,16 +1125,16 @@
         <v>8192</v>
       </c>
       <c r="D30" t="n">
-        <v>7428</v>
+        <v>8201</v>
       </c>
       <c r="E30" t="n">
-        <v>8192</v>
+        <v>7048</v>
       </c>
       <c r="F30" t="n">
-        <v>6550</v>
+        <v>5889</v>
       </c>
       <c r="G30" t="n">
-        <v>4433</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="31">
@@ -1151,13 +1151,13 @@
         <v>8192</v>
       </c>
       <c r="E31" t="n">
-        <v>8051</v>
+        <v>7871</v>
       </c>
       <c r="F31" t="n">
-        <v>4014</v>
+        <v>8334</v>
       </c>
       <c r="G31" t="n">
-        <v>1994</v>
+        <v>1842</v>
       </c>
     </row>
     <row r="32">
@@ -1171,16 +1171,16 @@
         <v>8192</v>
       </c>
       <c r="D32" t="n">
-        <v>8201</v>
+        <v>8203</v>
       </c>
       <c r="E32" t="n">
-        <v>8201</v>
+        <v>8192</v>
       </c>
       <c r="F32" t="n">
-        <v>6138</v>
+        <v>5108</v>
       </c>
       <c r="G32" t="n">
-        <v>3537</v>
+        <v>2735</v>
       </c>
     </row>
     <row r="33">
@@ -1194,16 +1194,16 @@
         <v>8192</v>
       </c>
       <c r="D33" t="n">
-        <v>8196</v>
+        <v>8192</v>
       </c>
       <c r="E33" t="n">
-        <v>8192</v>
+        <v>7513</v>
       </c>
       <c r="F33" t="n">
-        <v>8275</v>
+        <v>6076</v>
       </c>
       <c r="G33" t="n">
-        <v>2479</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="34">
@@ -1217,16 +1217,16 @@
         <v>8192</v>
       </c>
       <c r="D34" t="n">
-        <v>8192</v>
+        <v>7823</v>
       </c>
       <c r="E34" t="n">
-        <v>8209</v>
+        <v>8192</v>
       </c>
       <c r="F34" t="n">
-        <v>5927</v>
+        <v>6080</v>
       </c>
       <c r="G34" t="n">
-        <v>1657</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="35">
@@ -1240,16 +1240,16 @@
         <v>8192</v>
       </c>
       <c r="D35" t="n">
-        <v>8201</v>
+        <v>7779</v>
       </c>
       <c r="E35" t="n">
-        <v>8194</v>
+        <v>7821</v>
       </c>
       <c r="F35" t="n">
-        <v>8205</v>
+        <v>7425</v>
       </c>
       <c r="G35" t="n">
-        <v>2774</v>
+        <v>2690</v>
       </c>
     </row>
     <row r="36">
@@ -1263,16 +1263,16 @@
         <v>8192</v>
       </c>
       <c r="D36" t="n">
-        <v>8192</v>
+        <v>7634</v>
       </c>
       <c r="E36" t="n">
-        <v>8192</v>
+        <v>8227</v>
       </c>
       <c r="F36" t="n">
-        <v>8329</v>
+        <v>5105</v>
       </c>
       <c r="G36" t="n">
-        <v>1517</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="37">
@@ -1286,16 +1286,16 @@
         <v>8192</v>
       </c>
       <c r="D37" t="n">
-        <v>8192</v>
+        <v>8202</v>
       </c>
       <c r="E37" t="n">
-        <v>7937</v>
+        <v>7523</v>
       </c>
       <c r="F37" t="n">
-        <v>6137</v>
+        <v>6129</v>
       </c>
       <c r="G37" t="n">
-        <v>1888</v>
+        <v>2886</v>
       </c>
     </row>
     <row r="38">
@@ -1309,16 +1309,16 @@
         <v>8192</v>
       </c>
       <c r="D38" t="n">
-        <v>8198</v>
+        <v>8192</v>
       </c>
       <c r="E38" t="n">
-        <v>8162</v>
+        <v>6655</v>
       </c>
       <c r="F38" t="n">
-        <v>4090</v>
+        <v>4091</v>
       </c>
       <c r="G38" t="n">
-        <v>1502</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="39">
@@ -1335,13 +1335,13 @@
         <v>8192</v>
       </c>
       <c r="E39" t="n">
-        <v>8036</v>
+        <v>8192</v>
       </c>
       <c r="F39" t="n">
-        <v>6081</v>
+        <v>6274</v>
       </c>
       <c r="G39" t="n">
-        <v>1760</v>
+        <v>1830</v>
       </c>
     </row>
     <row r="40">
@@ -1358,13 +1358,13 @@
         <v>8192</v>
       </c>
       <c r="E40" t="n">
-        <v>6077</v>
+        <v>7131</v>
       </c>
       <c r="F40" t="n">
-        <v>5920</v>
+        <v>6098</v>
       </c>
       <c r="G40" t="n">
-        <v>1963</v>
+        <v>2849</v>
       </c>
     </row>
     <row r="41">
@@ -1381,13 +1381,13 @@
         <v>8192</v>
       </c>
       <c r="E41" t="n">
-        <v>8071</v>
+        <v>6092</v>
       </c>
       <c r="F41" t="n">
-        <v>5874</v>
+        <v>6053</v>
       </c>
       <c r="G41" t="n">
-        <v>1770</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="42">
@@ -1404,13 +1404,13 @@
         <v>8192</v>
       </c>
       <c r="E42" t="n">
-        <v>7260</v>
+        <v>8200</v>
       </c>
       <c r="F42" t="n">
-        <v>5887</v>
+        <v>6339</v>
       </c>
       <c r="G42" t="n">
-        <v>2873</v>
+        <v>1965</v>
       </c>
     </row>
     <row r="43">
@@ -1424,16 +1424,16 @@
         <v>8192</v>
       </c>
       <c r="D43" t="n">
-        <v>6575</v>
+        <v>8192</v>
       </c>
       <c r="E43" t="n">
-        <v>7555</v>
+        <v>6457</v>
       </c>
       <c r="F43" t="n">
-        <v>6328</v>
+        <v>6100</v>
       </c>
       <c r="G43" t="n">
-        <v>5122</v>
+        <v>2856</v>
       </c>
     </row>
     <row r="44">
@@ -1447,16 +1447,16 @@
         <v>8192</v>
       </c>
       <c r="D44" t="n">
-        <v>8192</v>
+        <v>6975</v>
       </c>
       <c r="E44" t="n">
-        <v>7949</v>
+        <v>8200</v>
       </c>
       <c r="F44" t="n">
-        <v>5616</v>
+        <v>6304</v>
       </c>
       <c r="G44" t="n">
-        <v>1725</v>
+        <v>1935</v>
       </c>
     </row>
     <row r="45">
@@ -1470,16 +1470,16 @@
         <v>8192</v>
       </c>
       <c r="D45" t="n">
-        <v>8200</v>
+        <v>7699</v>
       </c>
       <c r="E45" t="n">
-        <v>8192</v>
+        <v>8198</v>
       </c>
       <c r="F45" t="n">
-        <v>6072</v>
+        <v>5762</v>
       </c>
       <c r="G45" t="n">
-        <v>1780</v>
+        <v>2900</v>
       </c>
     </row>
     <row r="46">
@@ -1496,13 +1496,13 @@
         <v>8192</v>
       </c>
       <c r="E46" t="n">
-        <v>8198</v>
+        <v>8204</v>
       </c>
       <c r="F46" t="n">
-        <v>6120</v>
+        <v>6168</v>
       </c>
       <c r="G46" t="n">
-        <v>7258</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="47">
@@ -1516,16 +1516,16 @@
         <v>8192</v>
       </c>
       <c r="D47" t="n">
-        <v>8192</v>
+        <v>8195</v>
       </c>
       <c r="E47" t="n">
-        <v>8205</v>
+        <v>8192</v>
       </c>
       <c r="F47" t="n">
-        <v>6000</v>
+        <v>5984</v>
       </c>
       <c r="G47" t="n">
-        <v>1016</v>
+        <v>964</v>
       </c>
     </row>
     <row r="48">
@@ -1539,16 +1539,16 @@
         <v>8192</v>
       </c>
       <c r="D48" t="n">
-        <v>8204</v>
+        <v>8197</v>
       </c>
       <c r="E48" t="n">
-        <v>8192</v>
+        <v>7892</v>
       </c>
       <c r="F48" t="n">
-        <v>6133</v>
+        <v>6236</v>
       </c>
       <c r="G48" t="n">
-        <v>1019</v>
+        <v>2777</v>
       </c>
     </row>
     <row r="49">
@@ -1565,13 +1565,13 @@
         <v>8192</v>
       </c>
       <c r="E49" t="n">
-        <v>8217</v>
+        <v>8214</v>
       </c>
       <c r="F49" t="n">
-        <v>6209</v>
+        <v>6084</v>
       </c>
       <c r="G49" t="n">
-        <v>2509</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="50">
@@ -1585,16 +1585,16 @@
         <v>8192</v>
       </c>
       <c r="D50" t="n">
-        <v>8192</v>
+        <v>8201</v>
       </c>
       <c r="E50" t="n">
         <v>8192</v>
       </c>
       <c r="F50" t="n">
-        <v>4065</v>
+        <v>5999</v>
       </c>
       <c r="G50" t="n">
-        <v>1774</v>
+        <v>1965</v>
       </c>
     </row>
     <row r="51">
@@ -1608,16 +1608,16 @@
         <v>8192</v>
       </c>
       <c r="D51" t="n">
-        <v>8195</v>
+        <v>7528</v>
       </c>
       <c r="E51" t="n">
-        <v>8192</v>
+        <v>7618</v>
       </c>
       <c r="F51" t="n">
-        <v>6080</v>
+        <v>8392</v>
       </c>
       <c r="G51" t="n">
-        <v>1728</v>
+        <v>1515</v>
       </c>
     </row>
   </sheetData>
